--- a/EXAMS_INTERNAL/CAOSCE_RESULT/RAW_CAOSCE_RESULT/CAOSCE_QSs-Question Station TWO-grades.xlsx
+++ b/EXAMS_INTERNAL/CAOSCE_RESULT/RAW_CAOSCE_RESULT/CAOSCE_QSs-Question Station TWO-grades.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheets>
-    <sheet name="QSs Question Station TWO" sheetId="1" r:id="rIdSheet1" state="visible"/>
+    <sheet name="CAOSCE_QSs Question Station TWO" sheetId="1" r:id="rIdSheet1" state="visible"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R4"/>
   <sheetData>
     <row r="1" spans="1:18" customHeight="0">
       <c r="A1" s="0" t="inlineStr">
@@ -157,17 +157,17 @@
     <row r="2" spans="1:18" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>BN/A23/002</t>
+          <t>BN/A23/010</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>OMEDE OJOMA VIRTUOUS</t>
+          <t>UDEM CHINECHEREM CHISOM</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>yanuueyey@gmail.com1</t>
+          <t>yanuueyey@gmail.com9</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -177,22 +177,22 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  4:45 PM</t>
+          <t>30 November 2025  4:53 PM</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  4:50 PM</t>
+          <t>30 November 2025  4:54 PM</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>5 mins</t>
+          <t>17 secs</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -207,7 +207,7 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L2" s="0" t="inlineStr">
@@ -217,7 +217,7 @@
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N2" s="0" t="inlineStr">
@@ -237,7 +237,7 @@
       </c>
       <c r="Q2" s="0" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" s="0" t="inlineStr">
@@ -249,17 +249,17 @@
     <row r="3" spans="1:18" customHeight="0">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>BN/A23/003</t>
+          <t>BN/A23/011</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>NDIFE LUCY IFEOMA</t>
+          <t>IKEJIAKU LILIAN CHIAMAKA</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>yanuueyey@gmail.com2</t>
+          <t>yanuueyey@gmail.com10</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -269,22 +269,22 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  5:00 PM</t>
+          <t>30 November 2025  4:58 PM</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  5:01 PM</t>
+          <t>30 November 2025  4:58 PM</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>1 min 7 secs</t>
+          <t>18 secs</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
@@ -319,12 +319,12 @@
       </c>
       <c r="O3" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P3" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="Q3" s="0" t="inlineStr">
@@ -341,42 +341,12 @@
     <row r="4" spans="1:18" customHeight="0">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>BN/A23/005</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>MUHAMMAD KHADIJA ABDULLAHI</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>yanuueyey@gmail.com4</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  5:09 PM</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  5:10 PM</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>1 min 9 secs</t>
+          <t>Overall average</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
@@ -391,12 +361,12 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="M4" s="0" t="inlineStr">
@@ -411,12 +381,12 @@
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="P4" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="Q4" s="0" t="inlineStr">
@@ -426,253 +396,7 @@
       </c>
       <c r="R4" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:18" customHeight="0">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>BN/A23/006</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>UMORU AHUOIZA JEMIMA</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>yanuueyey@gmail.com5</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  9:35 PM</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  9:36 PM</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>52 secs</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O5" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P5" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="Q5" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="R5" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:18" customHeight="0">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>BN/A23/004</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>EGWUONWU EBUBECHI COMFORT</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>yanuueyey@gmail.com3</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  9:39 PM</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  9:40 PM</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>51 secs</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R6" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:18" customHeight="0">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Overall average</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>0.40</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
